--- a/data/pca/factorExposure/factorExposure_2019-02-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-02-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1179238185131537</v>
+        <v>-0.07209711790042897</v>
       </c>
       <c r="C2">
-        <v>-0.01798194221010473</v>
+        <v>0.03088516595197195</v>
       </c>
       <c r="D2">
-        <v>-0.05076788004547265</v>
+        <v>0.0227966131244891</v>
       </c>
       <c r="E2">
-        <v>-0.1290308503830323</v>
+        <v>0.04322010633722318</v>
       </c>
       <c r="F2">
-        <v>-0.04253416930603884</v>
+        <v>0.1416656753027751</v>
       </c>
       <c r="G2">
-        <v>-0.1065419893066945</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1043166777755117</v>
+      </c>
+      <c r="H2">
+        <v>-0.05547025245845415</v>
+      </c>
+      <c r="I2">
+        <v>0.0598154852253016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2054444903322607</v>
+        <v>-0.1608466376833466</v>
       </c>
       <c r="C3">
-        <v>-0.162586293057647</v>
+        <v>0.1049258760593094</v>
       </c>
       <c r="D3">
-        <v>0.03486912537128588</v>
+        <v>-0.0001017804427427411</v>
       </c>
       <c r="E3">
-        <v>-0.3294002282053756</v>
+        <v>-0.003375432104957382</v>
       </c>
       <c r="F3">
-        <v>0.06346737995672035</v>
+        <v>0.3751613416473704</v>
       </c>
       <c r="G3">
-        <v>-0.06756962755470142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.07967005924932309</v>
+      </c>
+      <c r="H3">
+        <v>-0.2698138243586337</v>
+      </c>
+      <c r="I3">
+        <v>0.2955801853854173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09687238462107217</v>
+        <v>-0.07206776441649757</v>
       </c>
       <c r="C4">
-        <v>-0.05041201906495712</v>
+        <v>0.04815292304899599</v>
       </c>
       <c r="D4">
-        <v>-0.02574725223140068</v>
+        <v>-0.01273102604025208</v>
       </c>
       <c r="E4">
-        <v>-0.07007396444001018</v>
+        <v>0.04122450274083972</v>
       </c>
       <c r="F4">
-        <v>0.007722191485425559</v>
+        <v>0.08134568287447852</v>
       </c>
       <c r="G4">
-        <v>-0.04218972795268339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04355973008110955</v>
+      </c>
+      <c r="H4">
+        <v>-0.02264389709666011</v>
+      </c>
+      <c r="I4">
+        <v>0.04497563940616056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01811630242441305</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01363747179714648</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.005259546148428887</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005654325323532967</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.004254400240180654</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.02081546789160246</v>
+      </c>
+      <c r="H6">
+        <v>0.0002587352490679177</v>
+      </c>
+      <c r="I6">
+        <v>-0.01277845243880762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.03903737073583669</v>
+        <v>-0.03371616889507204</v>
       </c>
       <c r="C7">
-        <v>-0.01443208105924837</v>
+        <v>0.01697238439507167</v>
       </c>
       <c r="D7">
-        <v>-0.03166873111076068</v>
+        <v>-0.03561268491709935</v>
       </c>
       <c r="E7">
-        <v>-0.07586773743437131</v>
+        <v>0.0286767379736711</v>
       </c>
       <c r="F7">
-        <v>0.03825654690888512</v>
+        <v>0.05475799212837813</v>
       </c>
       <c r="G7">
-        <v>0.04227701373090315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.007727569419093553</v>
+      </c>
+      <c r="H7">
+        <v>-0.04404799490893858</v>
+      </c>
+      <c r="I7">
+        <v>0.01781932665204039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.04438495483770222</v>
+        <v>-0.02886873215791767</v>
       </c>
       <c r="C8">
-        <v>-0.05737865343946568</v>
+        <v>0.05041963631875633</v>
       </c>
       <c r="D8">
-        <v>-0.002850010371196308</v>
+        <v>-0.01095872457010341</v>
       </c>
       <c r="E8">
-        <v>-0.07059181844104377</v>
+        <v>0.02095745832597123</v>
       </c>
       <c r="F8">
-        <v>0.0125537184862525</v>
+        <v>0.07203543979017306</v>
       </c>
       <c r="G8">
-        <v>-0.01258705675675035</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.01889602883834244</v>
+      </c>
+      <c r="H8">
+        <v>-0.03984130719772988</v>
+      </c>
+      <c r="I8">
+        <v>0.05226575704044324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08354787324337637</v>
+        <v>-0.06074753622335205</v>
       </c>
       <c r="C9">
-        <v>-0.04479241728456659</v>
+        <v>0.04225100389298333</v>
       </c>
       <c r="D9">
-        <v>-0.03584722855172573</v>
+        <v>-0.01667514107605182</v>
       </c>
       <c r="E9">
-        <v>-0.05704524335033832</v>
+        <v>0.03574244872611213</v>
       </c>
       <c r="F9">
-        <v>0.0199754293987951</v>
+        <v>0.08051336456992904</v>
       </c>
       <c r="G9">
-        <v>-0.04711747988054989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04199407388182399</v>
+      </c>
+      <c r="H9">
+        <v>-0.02072204284487721</v>
+      </c>
+      <c r="I9">
+        <v>0.02339266370467643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02060615731888697</v>
+        <v>-0.0348058272148183</v>
       </c>
       <c r="C10">
-        <v>0.1616088736443302</v>
+        <v>-0.1547540268425746</v>
       </c>
       <c r="D10">
-        <v>0.03166457876615513</v>
+        <v>0.003976638882466239</v>
       </c>
       <c r="E10">
-        <v>-0.07451597531385346</v>
+        <v>-0.04129870797454788</v>
       </c>
       <c r="F10">
-        <v>-0.01457076771194047</v>
+        <v>0.06897393047709498</v>
       </c>
       <c r="G10">
-        <v>-0.005172915925179446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02556566881223658</v>
+      </c>
+      <c r="H10">
+        <v>0.0004311312705560441</v>
+      </c>
+      <c r="I10">
+        <v>0.09888562592714763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05895461701228465</v>
+        <v>-0.04831277047487843</v>
       </c>
       <c r="C11">
-        <v>-0.01708988558422323</v>
+        <v>0.03143977517070144</v>
       </c>
       <c r="D11">
-        <v>0.004873329122645672</v>
+        <v>0.007094984763605921</v>
       </c>
       <c r="E11">
-        <v>-0.04501173803956787</v>
+        <v>0.01020252932408471</v>
       </c>
       <c r="F11">
-        <v>-0.01092867789201655</v>
+        <v>0.03986362078561002</v>
       </c>
       <c r="G11">
-        <v>0.0033202384920796</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.006967329231109059</v>
+      </c>
+      <c r="H11">
+        <v>0.00146207568047571</v>
+      </c>
+      <c r="I11">
+        <v>0.001260068510499281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04482298408820588</v>
+        <v>-0.04477402495808223</v>
       </c>
       <c r="C12">
-        <v>-0.02074008603872956</v>
+        <v>0.02849980759405376</v>
       </c>
       <c r="D12">
-        <v>0.003260280740683405</v>
+        <v>-0.004202339560545617</v>
       </c>
       <c r="E12">
-        <v>-0.02774346012286528</v>
+        <v>0.01155337080671543</v>
       </c>
       <c r="F12">
-        <v>0.008902219840243331</v>
+        <v>0.01430874183500709</v>
       </c>
       <c r="G12">
-        <v>0.0009097404923462967</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.001041476540029979</v>
+      </c>
+      <c r="H12">
+        <v>-0.003444031287158041</v>
+      </c>
+      <c r="I12">
+        <v>0.001048097222362219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06183382553463665</v>
+        <v>-0.04078696784035248</v>
       </c>
       <c r="C13">
-        <v>-0.0312589537892889</v>
+        <v>0.02592546906164217</v>
       </c>
       <c r="D13">
-        <v>0.004756114605425314</v>
+        <v>0.01597487647411415</v>
       </c>
       <c r="E13">
-        <v>-0.1103103980179472</v>
+        <v>0.009224552566000389</v>
       </c>
       <c r="F13">
-        <v>-0.00641872255798096</v>
+        <v>0.1049235456955761</v>
       </c>
       <c r="G13">
-        <v>-0.01448211354729445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.02247326997923655</v>
+      </c>
+      <c r="H13">
+        <v>-0.04143672083602777</v>
+      </c>
+      <c r="I13">
+        <v>0.03215508998306024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03403077129942993</v>
+        <v>-0.0279270252572674</v>
       </c>
       <c r="C14">
-        <v>-0.02463220154694109</v>
+        <v>0.02006770168219096</v>
       </c>
       <c r="D14">
-        <v>-0.027167076181429</v>
+        <v>-0.004851559057240072</v>
       </c>
       <c r="E14">
-        <v>-0.03232602247515366</v>
+        <v>0.02741139496168181</v>
       </c>
       <c r="F14">
-        <v>-0.02172873429227404</v>
+        <v>0.04095290053364472</v>
       </c>
       <c r="G14">
-        <v>0.01108310760563963</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.02209707740941194</v>
+      </c>
+      <c r="H14">
+        <v>-0.05111360911439453</v>
+      </c>
+      <c r="I14">
+        <v>0.01075638857841415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.047687358813629</v>
+        <v>-0.04259476966125567</v>
       </c>
       <c r="C16">
-        <v>-0.02737315073240516</v>
+        <v>0.03756466020008373</v>
       </c>
       <c r="D16">
-        <v>0.007357785917818323</v>
+        <v>0.001856183797744477</v>
       </c>
       <c r="E16">
-        <v>-0.03425144355719412</v>
+        <v>0.008362919248158254</v>
       </c>
       <c r="F16">
-        <v>0.003713624573238049</v>
+        <v>0.03567110540199702</v>
       </c>
       <c r="G16">
-        <v>0.008188131483830746</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.005043720254519581</v>
+      </c>
+      <c r="H16">
+        <v>-0.005951112861326295</v>
+      </c>
+      <c r="I16">
+        <v>0.002002881908833475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.05399997187340014</v>
+        <v>-0.04762840072243546</v>
       </c>
       <c r="C19">
-        <v>-0.04803561541617572</v>
+        <v>0.04423560032838861</v>
       </c>
       <c r="D19">
-        <v>0.0006890944822693618</v>
+        <v>0.003115184770098217</v>
       </c>
       <c r="E19">
-        <v>-0.08152545915565991</v>
+        <v>0.02323825412609348</v>
       </c>
       <c r="F19">
-        <v>-0.002134550727692626</v>
+        <v>0.08468921664370663</v>
       </c>
       <c r="G19">
-        <v>0.02639028324907314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.004539313534377163</v>
+      </c>
+      <c r="H19">
+        <v>-0.07564623603994795</v>
+      </c>
+      <c r="I19">
+        <v>0.04780203548558965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03591575071052778</v>
+        <v>-0.01738448403395181</v>
       </c>
       <c r="C20">
-        <v>-0.04354104163972296</v>
+        <v>0.02862673114126355</v>
       </c>
       <c r="D20">
-        <v>-0.01383224590866471</v>
+        <v>-0.005367265227135299</v>
       </c>
       <c r="E20">
-        <v>-0.06722527569013668</v>
+        <v>0.02135181372789716</v>
       </c>
       <c r="F20">
-        <v>0.006754823211224115</v>
+        <v>0.06850863434034042</v>
       </c>
       <c r="G20">
-        <v>0.01263567186893312</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01083626697436204</v>
+      </c>
+      <c r="H20">
+        <v>-0.06766924285178047</v>
+      </c>
+      <c r="I20">
+        <v>0.04840233407614743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03443716524539805</v>
+        <v>-0.02770141921485992</v>
       </c>
       <c r="C21">
-        <v>-0.03398603747044652</v>
+        <v>0.0297511122318739</v>
       </c>
       <c r="D21">
-        <v>-0.004723880767419374</v>
+        <v>-0.01181727651463616</v>
       </c>
       <c r="E21">
-        <v>-0.1103867315794479</v>
+        <v>0.008140175216011439</v>
       </c>
       <c r="F21">
-        <v>-0.02611849193844382</v>
+        <v>0.08047312194047991</v>
       </c>
       <c r="G21">
-        <v>-0.04396810077364319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03817589174058768</v>
+      </c>
+      <c r="H21">
+        <v>-0.02540145382397962</v>
+      </c>
+      <c r="I21">
+        <v>-0.008597140795590154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.05064728746202804</v>
+        <v>-0.04128793806559374</v>
       </c>
       <c r="C24">
-        <v>-0.0249265998893076</v>
+        <v>0.03058119801297996</v>
       </c>
       <c r="D24">
-        <v>0.003451008835327784</v>
+        <v>0.0009387697953822898</v>
       </c>
       <c r="E24">
-        <v>-0.0446643058019693</v>
+        <v>0.01145347276262808</v>
       </c>
       <c r="F24">
-        <v>0.00894941340164161</v>
+        <v>0.03758246709754302</v>
       </c>
       <c r="G24">
-        <v>0.001181890288086524</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.001430039824925325</v>
+      </c>
+      <c r="H24">
+        <v>-0.001251093427536078</v>
+      </c>
+      <c r="I24">
+        <v>0.003107113895139346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05110843599770074</v>
+        <v>-0.04613864040492548</v>
       </c>
       <c r="C25">
-        <v>-0.01647289638638451</v>
+        <v>0.0271262224577895</v>
       </c>
       <c r="D25">
-        <v>0.002411961373123755</v>
+        <v>0.002084122686626972</v>
       </c>
       <c r="E25">
-        <v>-0.0431439843773222</v>
+        <v>0.009911331706312877</v>
       </c>
       <c r="F25">
-        <v>-0.003403932497541846</v>
+        <v>0.04272442208093387</v>
       </c>
       <c r="G25">
-        <v>0.0002467366947851773</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.002348882424786065</v>
+      </c>
+      <c r="H25">
+        <v>0.003306550376084904</v>
+      </c>
+      <c r="I25">
+        <v>-0.001606987900885445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02227088864690886</v>
+        <v>-0.01691080596751134</v>
       </c>
       <c r="C26">
-        <v>-0.03142741882235304</v>
+        <v>0.02568241513409047</v>
       </c>
       <c r="D26">
-        <v>-0.005880415619901045</v>
+        <v>0.00505304415195926</v>
       </c>
       <c r="E26">
-        <v>-0.03606656733325635</v>
+        <v>0.003005572810073256</v>
       </c>
       <c r="F26">
-        <v>-0.02949872930559939</v>
+        <v>0.04646859560218681</v>
       </c>
       <c r="G26">
-        <v>0.004302233925198235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.02083758365266138</v>
+      </c>
+      <c r="H26">
+        <v>-0.03301121361267378</v>
+      </c>
+      <c r="I26">
+        <v>0.003529795861161263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1157903785346879</v>
+        <v>-0.07285112762358507</v>
       </c>
       <c r="C27">
-        <v>-0.03628925239578054</v>
+        <v>0.03092619960246049</v>
       </c>
       <c r="D27">
-        <v>-0.01418187507348932</v>
+        <v>-0.004090096863107108</v>
       </c>
       <c r="E27">
-        <v>-0.09057295660788409</v>
+        <v>0.03496485109207677</v>
       </c>
       <c r="F27">
-        <v>0.01312860992165902</v>
+        <v>0.06851119411676214</v>
       </c>
       <c r="G27">
-        <v>-0.01981260105375374</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01994217013758239</v>
+      </c>
+      <c r="H27">
+        <v>-0.01041873965622161</v>
+      </c>
+      <c r="I27">
+        <v>0.03338630595813605</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.01800492878962985</v>
+        <v>-0.05224758868852101</v>
       </c>
       <c r="C28">
-        <v>0.2425873468905829</v>
+        <v>-0.2351769376068944</v>
       </c>
       <c r="D28">
-        <v>0.03710390279175556</v>
+        <v>-0.004506225084066675</v>
       </c>
       <c r="E28">
-        <v>-0.05393264879914504</v>
+        <v>-0.06157312661976615</v>
       </c>
       <c r="F28">
-        <v>-0.02174471705119076</v>
+        <v>0.05833256254497997</v>
       </c>
       <c r="G28">
-        <v>-0.0271592900484334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02712313808511174</v>
+      </c>
+      <c r="H28">
+        <v>0.00584098797923318</v>
+      </c>
+      <c r="I28">
+        <v>0.1519825762219989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02420326749240691</v>
+        <v>-0.02333168520955275</v>
       </c>
       <c r="C29">
-        <v>-0.02639748259523013</v>
+        <v>0.01815523228114638</v>
       </c>
       <c r="D29">
-        <v>-0.03098795081979744</v>
+        <v>-0.00833718550864309</v>
       </c>
       <c r="E29">
-        <v>-0.03424355713859368</v>
+        <v>0.02830598441530272</v>
       </c>
       <c r="F29">
-        <v>-0.01707577363627075</v>
+        <v>0.03670040418555424</v>
       </c>
       <c r="G29">
-        <v>-0.00171665754434496</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.02597202767565289</v>
+      </c>
+      <c r="H29">
+        <v>-0.04958428900758236</v>
+      </c>
+      <c r="I29">
+        <v>0.001657841597271719</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1145999047708545</v>
+        <v>-0.08796298368286458</v>
       </c>
       <c r="C30">
-        <v>-0.02922505850393507</v>
+        <v>0.04957689783076454</v>
       </c>
       <c r="D30">
-        <v>-0.0324773608616181</v>
+        <v>0.03888343243078467</v>
       </c>
       <c r="E30">
-        <v>-0.112085075501641</v>
+        <v>0.03478306711846989</v>
       </c>
       <c r="F30">
-        <v>-0.0009865546139333002</v>
+        <v>0.1048776555386058</v>
       </c>
       <c r="G30">
-        <v>0.02047666338325271</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01630620028910828</v>
+      </c>
+      <c r="H30">
+        <v>-0.01765117602719523</v>
+      </c>
+      <c r="I30">
+        <v>-2.183220067160714e-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.0705568564522335</v>
+        <v>-0.06224005797387007</v>
       </c>
       <c r="C31">
-        <v>-0.01308503396894168</v>
+        <v>0.02224502188942668</v>
       </c>
       <c r="D31">
-        <v>-0.01318034212538133</v>
+        <v>0.0116140495337172</v>
       </c>
       <c r="E31">
-        <v>0.0194784813438178</v>
+        <v>0.02466573260441692</v>
       </c>
       <c r="F31">
-        <v>-0.04752625621030237</v>
+        <v>0.002006375419529394</v>
       </c>
       <c r="G31">
-        <v>0.02733499048113884</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03893767996642269</v>
+      </c>
+      <c r="H31">
+        <v>-0.03394098634580353</v>
+      </c>
+      <c r="I31">
+        <v>0.01599355578951696</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.06339844996051554</v>
+        <v>-0.04194880025746953</v>
       </c>
       <c r="C32">
-        <v>-0.04492007875968223</v>
+        <v>0.05267679484461477</v>
       </c>
       <c r="D32">
-        <v>-0.01472346696180322</v>
+        <v>-0.01358162386641748</v>
       </c>
       <c r="E32">
-        <v>-0.1073509913086803</v>
+        <v>0.03391739925141481</v>
       </c>
       <c r="F32">
-        <v>0.002358933391541592</v>
+        <v>0.08792282242147598</v>
       </c>
       <c r="G32">
-        <v>0.01600145666918686</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01104727023865158</v>
+      </c>
+      <c r="H32">
+        <v>-0.03299921143290713</v>
+      </c>
+      <c r="I32">
+        <v>0.03234642216957092</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06950580761504299</v>
+        <v>-0.05546743696702812</v>
       </c>
       <c r="C33">
-        <v>-0.04871635999889645</v>
+        <v>0.05163955934752699</v>
       </c>
       <c r="D33">
-        <v>-0.01268184840715468</v>
+        <v>0.02056897476742164</v>
       </c>
       <c r="E33">
-        <v>-0.07505674522289275</v>
+        <v>0.0159803850766206</v>
       </c>
       <c r="F33">
-        <v>-0.03321833760644367</v>
+        <v>0.07755202964158237</v>
       </c>
       <c r="G33">
-        <v>-0.0228412449245048</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.0326874147804587</v>
+      </c>
+      <c r="H33">
+        <v>-0.03753734739287036</v>
+      </c>
+      <c r="I33">
+        <v>0.007213622373609347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04881249749698043</v>
+        <v>-0.04340088857189434</v>
       </c>
       <c r="C34">
-        <v>-0.02328590512264691</v>
+        <v>0.03524133954730668</v>
       </c>
       <c r="D34">
-        <v>-0.002214392962246572</v>
+        <v>-0.003308115990686103</v>
       </c>
       <c r="E34">
-        <v>-0.02823281350753054</v>
+        <v>0.01871472528630354</v>
       </c>
       <c r="F34">
-        <v>0.005518289142560671</v>
+        <v>0.0310905105529439</v>
       </c>
       <c r="G34">
-        <v>0.009584465370182189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.001802079089427126</v>
+      </c>
+      <c r="H34">
+        <v>-0.009159374768941889</v>
+      </c>
+      <c r="I34">
+        <v>0.002387792747506699</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01568407629679869</v>
+        <v>-0.01599990008086681</v>
       </c>
       <c r="C36">
-        <v>-0.002058016693138525</v>
+        <v>0.00298209385033277</v>
       </c>
       <c r="D36">
-        <v>-0.009102054513498893</v>
+        <v>-0.004397437318228937</v>
       </c>
       <c r="E36">
-        <v>-0.02291253392874943</v>
+        <v>0.01037475274271977</v>
       </c>
       <c r="F36">
-        <v>-0.01736393597535075</v>
+        <v>0.02672440052979894</v>
       </c>
       <c r="G36">
-        <v>0.006575595491226607</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02329083105283173</v>
+      </c>
+      <c r="H36">
+        <v>-0.03029086729151752</v>
+      </c>
+      <c r="I36">
+        <v>-0.005094764594983952</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.048503148689316</v>
+        <v>-0.03395496916701167</v>
       </c>
       <c r="C38">
-        <v>-0.0206095613508025</v>
+        <v>0.01544661714029463</v>
       </c>
       <c r="D38">
-        <v>-0.02434509797897622</v>
+        <v>-0.002957461570091242</v>
       </c>
       <c r="E38">
-        <v>-0.02396673571771819</v>
+        <v>0.01409169850594559</v>
       </c>
       <c r="F38">
-        <v>0.02325116926548082</v>
+        <v>0.04768273285006323</v>
       </c>
       <c r="G38">
-        <v>-0.01784618681066907</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.0252641205957986</v>
+      </c>
+      <c r="H38">
+        <v>-0.01529529867115794</v>
+      </c>
+      <c r="I38">
+        <v>-0.01247863980827253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07501935954243344</v>
+        <v>-0.0551609937508425</v>
       </c>
       <c r="C39">
-        <v>-0.02140824095326691</v>
+        <v>0.04394265100190498</v>
       </c>
       <c r="D39">
-        <v>-0.00291283011133917</v>
+        <v>0.006281719666976376</v>
       </c>
       <c r="E39">
-        <v>-0.04080192351948343</v>
+        <v>0.01874427679518065</v>
       </c>
       <c r="F39">
-        <v>-0.009215809948647133</v>
+        <v>0.05572941385772934</v>
       </c>
       <c r="G39">
-        <v>-0.01142348189084122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01846789314213705</v>
+      </c>
+      <c r="H39">
+        <v>-0.001275505449416111</v>
+      </c>
+      <c r="I39">
+        <v>-0.01762032129222624</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07549246190320315</v>
+        <v>-0.05463547472742979</v>
       </c>
       <c r="C40">
-        <v>-0.0483358543136883</v>
+        <v>0.04157211271577487</v>
       </c>
       <c r="D40">
-        <v>-0.009966545781419374</v>
+        <v>0.02182421534816723</v>
       </c>
       <c r="E40">
-        <v>-0.1057160941598262</v>
+        <v>0.02528711900203436</v>
       </c>
       <c r="F40">
-        <v>0.003414433593309185</v>
+        <v>0.09419972183226809</v>
       </c>
       <c r="G40">
-        <v>-0.03586592280682276</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02273361683057875</v>
+      </c>
+      <c r="H40">
+        <v>-0.04783761647588674</v>
+      </c>
+      <c r="I40">
+        <v>0.05595916647086961</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.003197361149723979</v>
+        <v>-0.003876502333112459</v>
       </c>
       <c r="C41">
-        <v>-0.02223430887337554</v>
+        <v>0.01234381905069011</v>
       </c>
       <c r="D41">
-        <v>-0.02747245215331006</v>
+        <v>0.0004624808710513697</v>
       </c>
       <c r="E41">
-        <v>-0.01179844225507935</v>
+        <v>0.01137048114015134</v>
       </c>
       <c r="F41">
-        <v>-0.02768618367439266</v>
+        <v>0.01366698635304684</v>
       </c>
       <c r="G41">
-        <v>-0.009533153389139957</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03386835147926563</v>
+      </c>
+      <c r="H41">
+        <v>-0.03171915522894417</v>
+      </c>
+      <c r="I41">
+        <v>0.02629098804936979</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1432289059031196</v>
+        <v>-0.2205760731441888</v>
       </c>
       <c r="C42">
-        <v>-0.2209860834153489</v>
+        <v>0.2855417752715799</v>
       </c>
       <c r="D42">
-        <v>0.924001244251288</v>
+        <v>0.06574017881733718</v>
       </c>
       <c r="E42">
-        <v>0.1005474052618561</v>
+        <v>-0.8995576710618728</v>
       </c>
       <c r="F42">
-        <v>-0.1002179826968212</v>
+        <v>-0.1624490461731462</v>
       </c>
       <c r="G42">
-        <v>0.1052566710522155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.004599186396995339</v>
+      </c>
+      <c r="H42">
+        <v>-0.001796031269016474</v>
+      </c>
+      <c r="I42">
+        <v>0.05769552852500446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.00591927372469784</v>
+        <v>-0.006925930344346267</v>
       </c>
       <c r="C43">
-        <v>-0.02221861662105538</v>
+        <v>0.01444629969222636</v>
       </c>
       <c r="D43">
-        <v>-0.01552358741933971</v>
+        <v>0.003020439714641789</v>
       </c>
       <c r="E43">
-        <v>-0.03402145163224293</v>
+        <v>0.01119387855348381</v>
       </c>
       <c r="F43">
-        <v>-0.01676393104958453</v>
+        <v>0.02843017864833937</v>
       </c>
       <c r="G43">
-        <v>0.00788852090335412</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.0196521475875886</v>
+      </c>
+      <c r="H43">
+        <v>-0.03017744928879538</v>
+      </c>
+      <c r="I43">
+        <v>0.01912265613985892</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.0394659983125215</v>
+        <v>-0.02740842557732622</v>
       </c>
       <c r="C44">
-        <v>-0.05455507075011383</v>
+        <v>0.04275702833194853</v>
       </c>
       <c r="D44">
-        <v>-0.0171094212269292</v>
+        <v>-0.0003730384074840153</v>
       </c>
       <c r="E44">
-        <v>-0.1235407498068748</v>
+        <v>0.01144893019499307</v>
       </c>
       <c r="F44">
-        <v>-0.06552101901048628</v>
+        <v>0.1209748083922682</v>
       </c>
       <c r="G44">
-        <v>-0.04616371586212317</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.05922593237849886</v>
+      </c>
+      <c r="H44">
+        <v>-0.1003619884198526</v>
+      </c>
+      <c r="I44">
+        <v>0.03903808653736101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02778185172934874</v>
+        <v>-0.02425169131967319</v>
       </c>
       <c r="C46">
-        <v>-0.02913322396249801</v>
+        <v>0.03412817635508836</v>
       </c>
       <c r="D46">
-        <v>-0.03047926329950537</v>
+        <v>0.003790235514050495</v>
       </c>
       <c r="E46">
-        <v>-0.03372028719811345</v>
+        <v>0.03258179147641262</v>
       </c>
       <c r="F46">
-        <v>-0.03028530056914045</v>
+        <v>0.04973654351054584</v>
       </c>
       <c r="G46">
-        <v>-0.005520490031515063</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.02146821281575663</v>
+      </c>
+      <c r="H46">
+        <v>-0.05445563946626204</v>
+      </c>
+      <c r="I46">
+        <v>0.007269123530113727</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09134028230673713</v>
+        <v>-0.08961479003385044</v>
       </c>
       <c r="C47">
-        <v>-0.01280063768927601</v>
+        <v>0.01842551048164264</v>
       </c>
       <c r="D47">
-        <v>-0.01703462022231019</v>
+        <v>0.006111466651954623</v>
       </c>
       <c r="E47">
-        <v>0.01954809247691398</v>
+        <v>0.02745985095806103</v>
       </c>
       <c r="F47">
-        <v>-0.02283214426892369</v>
+        <v>-0.0096588457734784</v>
       </c>
       <c r="G47">
-        <v>0.007535987937082273</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.03742510981648918</v>
+      </c>
+      <c r="H47">
+        <v>-0.05556432821432575</v>
+      </c>
+      <c r="I47">
+        <v>0.02835948116952435</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01993966278071022</v>
+        <v>-0.02004077165590499</v>
       </c>
       <c r="C48">
-        <v>-0.0247641163287613</v>
+        <v>0.01993259382163151</v>
       </c>
       <c r="D48">
-        <v>-0.01551458279622926</v>
+        <v>-0.0007228344296472489</v>
       </c>
       <c r="E48">
-        <v>-0.02901801378103082</v>
+        <v>0.01467249997929148</v>
       </c>
       <c r="F48">
-        <v>-0.007845868506968523</v>
+        <v>0.02779924873573044</v>
       </c>
       <c r="G48">
-        <v>-0.0007056479388848518</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01592139879764268</v>
+      </c>
+      <c r="H48">
+        <v>-0.02082416627014705</v>
+      </c>
+      <c r="I48">
+        <v>0.01483151201046225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.0949445682121821</v>
+        <v>-0.08881605760135329</v>
       </c>
       <c r="C50">
-        <v>-0.0319433131918431</v>
+        <v>0.03555627121799972</v>
       </c>
       <c r="D50">
-        <v>-0.02407545787751287</v>
+        <v>-0.008720637612401144</v>
       </c>
       <c r="E50">
-        <v>0.01628747301075527</v>
+        <v>0.02844190822244536</v>
       </c>
       <c r="F50">
-        <v>-0.03553433030807975</v>
+        <v>-0.003781070780248503</v>
       </c>
       <c r="G50">
-        <v>0.03160382316574176</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.001412217218812753</v>
+      </c>
+      <c r="H50">
+        <v>-0.03730275221573901</v>
+      </c>
+      <c r="I50">
+        <v>-0.0007821969926524836</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05466311283072144</v>
+        <v>-0.03916124271185611</v>
       </c>
       <c r="C51">
-        <v>0.01702718932764138</v>
+        <v>-0.006583973323479431</v>
       </c>
       <c r="D51">
-        <v>-0.001058167752364235</v>
+        <v>0.01233099427620111</v>
       </c>
       <c r="E51">
-        <v>-0.08286227225661695</v>
+        <v>0.009102970415888192</v>
       </c>
       <c r="F51">
-        <v>-0.06703742362851921</v>
+        <v>0.0975397713999667</v>
       </c>
       <c r="G51">
-        <v>-0.009058476601845293</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05284238868885892</v>
+      </c>
+      <c r="H51">
+        <v>-0.05153543760436989</v>
+      </c>
+      <c r="I51">
+        <v>0.02884702794019017</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1426099331934502</v>
+        <v>-0.125556294184866</v>
       </c>
       <c r="C53">
-        <v>-0.01667903909952402</v>
+        <v>0.03636319107656089</v>
       </c>
       <c r="D53">
-        <v>-0.04893112027775782</v>
+        <v>0.007621042882702699</v>
       </c>
       <c r="E53">
-        <v>0.04648173779884042</v>
+        <v>0.05691307932242189</v>
       </c>
       <c r="F53">
-        <v>-0.02576700977545723</v>
+        <v>-0.04263866817379519</v>
       </c>
       <c r="G53">
-        <v>0.02181177538886581</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02221566276800714</v>
+      </c>
+      <c r="H53">
+        <v>0.003825601740836638</v>
+      </c>
+      <c r="I53">
+        <v>0.0480875467310923</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02608027743137813</v>
+        <v>-0.02516637365583604</v>
       </c>
       <c r="C54">
-        <v>-0.008020387501615813</v>
+        <v>0.001849417718498125</v>
       </c>
       <c r="D54">
-        <v>-0.02825984048338095</v>
+        <v>-0.004647488982673441</v>
       </c>
       <c r="E54">
-        <v>-0.03524894125148692</v>
+        <v>0.02602182064147567</v>
       </c>
       <c r="F54">
-        <v>-0.03738432011479538</v>
+        <v>0.03576999588774921</v>
       </c>
       <c r="G54">
-        <v>-0.02725070799138445</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.04917834704889243</v>
+      </c>
+      <c r="H54">
+        <v>-0.04597905047167562</v>
+      </c>
+      <c r="I54">
+        <v>0.02735099231259942</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1046032200780649</v>
+        <v>-0.09899864095174545</v>
       </c>
       <c r="C55">
-        <v>-0.005187822103410802</v>
+        <v>0.02999885940604345</v>
       </c>
       <c r="D55">
-        <v>-0.03591967043536293</v>
+        <v>-0.01050495016974358</v>
       </c>
       <c r="E55">
-        <v>0.014797925227368</v>
+        <v>0.03760753370117917</v>
       </c>
       <c r="F55">
-        <v>0.03366945229834897</v>
+        <v>-0.02913639599936197</v>
       </c>
       <c r="G55">
-        <v>0.02634163225760989</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01040580556151633</v>
+      </c>
+      <c r="H55">
+        <v>-0.009051319683844856</v>
+      </c>
+      <c r="I55">
+        <v>0.02437827139991547</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1777154081129973</v>
+        <v>-0.1671446463149227</v>
       </c>
       <c r="C56">
-        <v>0.0131074542075481</v>
+        <v>0.01374014595354511</v>
       </c>
       <c r="D56">
-        <v>-0.08630709145961826</v>
+        <v>0.0001838864507125054</v>
       </c>
       <c r="E56">
-        <v>0.09598213627549919</v>
+        <v>0.08572026523652021</v>
       </c>
       <c r="F56">
-        <v>0.04407562498120839</v>
+        <v>-0.08687641728330479</v>
       </c>
       <c r="G56">
-        <v>0.06443462407352658</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02499935627233366</v>
+      </c>
+      <c r="H56">
+        <v>0.04461069189753226</v>
+      </c>
+      <c r="I56">
+        <v>0.04866362644759126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08746222298820677</v>
+        <v>-0.06464947672465231</v>
       </c>
       <c r="C57">
-        <v>-0.03316292620670724</v>
+        <v>0.03378914048966829</v>
       </c>
       <c r="D57">
-        <v>-0.02945981690059618</v>
+        <v>0.01892291473499782</v>
       </c>
       <c r="E57">
-        <v>-0.04463716556452244</v>
+        <v>0.008591893313854175</v>
       </c>
       <c r="F57">
-        <v>-0.05011796406435071</v>
+        <v>0.06737157524368771</v>
       </c>
       <c r="G57">
-        <v>0.005312505715560593</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.02472633068644738</v>
+      </c>
+      <c r="H57">
+        <v>-0.03409444714320117</v>
+      </c>
+      <c r="I57">
+        <v>0.003669341630962432</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1983021129722423</v>
+        <v>-0.2068576808169958</v>
       </c>
       <c r="C58">
-        <v>-0.03841623183804038</v>
+        <v>0.08892664029466087</v>
       </c>
       <c r="D58">
-        <v>-0.0008295111909771794</v>
+        <v>0.09432480864406119</v>
       </c>
       <c r="E58">
-        <v>-0.1319992391474416</v>
+        <v>-0.007664981087648943</v>
       </c>
       <c r="F58">
-        <v>0.01089008407768683</v>
+        <v>0.2568220680782496</v>
       </c>
       <c r="G58">
-        <v>0.08972447364048763</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1898992151731617</v>
+      </c>
+      <c r="H58">
+        <v>-0.3768301692009384</v>
+      </c>
+      <c r="I58">
+        <v>-0.3896362002209984</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.02192158991516403</v>
+        <v>-0.05151467695505199</v>
       </c>
       <c r="C59">
-        <v>0.1965350276758956</v>
+        <v>-0.1948279128421204</v>
       </c>
       <c r="D59">
-        <v>0.007569995752493948</v>
+        <v>0.01232432494754921</v>
       </c>
       <c r="E59">
-        <v>-0.06382050457248754</v>
+        <v>-0.02324249335804623</v>
       </c>
       <c r="F59">
-        <v>-0.006744227964150744</v>
+        <v>0.06938960369178176</v>
       </c>
       <c r="G59">
-        <v>-0.0115828452047822</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.006233124673027357</v>
+      </c>
+      <c r="H59">
+        <v>0.0283122627922361</v>
+      </c>
+      <c r="I59">
+        <v>0.05459294123044324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1886922109297125</v>
+        <v>-0.1868972170181874</v>
       </c>
       <c r="C60">
-        <v>0.08398445978259746</v>
+        <v>-0.04312459861748624</v>
       </c>
       <c r="D60">
-        <v>-0.007300602040261907</v>
+        <v>0.0474198248609158</v>
       </c>
       <c r="E60">
-        <v>-0.1927377825494699</v>
+        <v>0.006947203920561796</v>
       </c>
       <c r="F60">
-        <v>-0.03510214334713257</v>
+        <v>0.2055302808130435</v>
       </c>
       <c r="G60">
-        <v>-0.03649593423904356</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.05264655502051171</v>
+      </c>
+      <c r="H60">
+        <v>0.2814583987555535</v>
+      </c>
+      <c r="I60">
+        <v>-0.08551171565696687</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04387619869637888</v>
+        <v>-0.03701506076986039</v>
       </c>
       <c r="C61">
-        <v>-0.01354076345315647</v>
+        <v>0.02879933276381413</v>
       </c>
       <c r="D61">
-        <v>-0.0005381376128569189</v>
+        <v>0.000202737061936779</v>
       </c>
       <c r="E61">
-        <v>-0.03765840888812372</v>
+        <v>0.008941547457209919</v>
       </c>
       <c r="F61">
-        <v>-0.0009138711149365702</v>
+        <v>0.03793857524968593</v>
       </c>
       <c r="G61">
-        <v>-0.01048822832951846</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.01088535129598233</v>
+      </c>
+      <c r="H61">
+        <v>0.006600884948400007</v>
+      </c>
+      <c r="I61">
+        <v>-0.03088206093855533</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04456130055489857</v>
+        <v>-0.03092267227539995</v>
       </c>
       <c r="C63">
-        <v>-0.01663197996272119</v>
+        <v>0.02090237423511134</v>
       </c>
       <c r="D63">
-        <v>-0.01921748200678848</v>
+        <v>0.002243212258549572</v>
       </c>
       <c r="E63">
-        <v>-0.04151174752612494</v>
+        <v>0.01587436831865386</v>
       </c>
       <c r="F63">
-        <v>-0.0197289872317536</v>
+        <v>0.02944777805517088</v>
       </c>
       <c r="G63">
-        <v>0.006283466509892055</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.008257110318476722</v>
+      </c>
+      <c r="H63">
+        <v>-0.04864428380628628</v>
+      </c>
+      <c r="I63">
+        <v>0.04087810112641679</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.07368679879575657</v>
+        <v>-0.05859479541980026</v>
       </c>
       <c r="C64">
-        <v>-0.04803921573087831</v>
+        <v>0.04354507012712961</v>
       </c>
       <c r="D64">
-        <v>-0.04571487834756466</v>
+        <v>-0.01316507335433373</v>
       </c>
       <c r="E64">
-        <v>-0.04806725855443528</v>
+        <v>0.04145114896015982</v>
       </c>
       <c r="F64">
-        <v>-0.001459653996147513</v>
+        <v>0.05004462492621415</v>
       </c>
       <c r="G64">
-        <v>-0.07746837822499966</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05917015805901189</v>
+      </c>
+      <c r="H64">
+        <v>0.006641220902714061</v>
+      </c>
+      <c r="I64">
+        <v>0.04795069667300212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01993837677208133</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01368112899326372</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.006077609497082124</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.006655815832655901</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.0005928931595600552</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.02097322469318253</v>
+      </c>
+      <c r="H65">
+        <v>0.003811156298674596</v>
+      </c>
+      <c r="I65">
+        <v>-0.01384772354036144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.08649564712435263</v>
+        <v>-0.06652041519769862</v>
       </c>
       <c r="C66">
-        <v>-0.03967405400502527</v>
+        <v>0.05501139073782068</v>
       </c>
       <c r="D66">
-        <v>-0.03724658903089192</v>
+        <v>0.01492039802338523</v>
       </c>
       <c r="E66">
-        <v>-0.07834461628281701</v>
+        <v>0.04937885540092089</v>
       </c>
       <c r="F66">
-        <v>-0.02149665668197364</v>
+        <v>0.06864577270037781</v>
       </c>
       <c r="G66">
-        <v>-0.02433635550132869</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01373460500481527</v>
+      </c>
+      <c r="H66">
+        <v>0.001108594977100829</v>
+      </c>
+      <c r="I66">
+        <v>-0.01239633233847167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05794157642204641</v>
+        <v>-0.0467178029554384</v>
       </c>
       <c r="C67">
-        <v>0.007739076247991532</v>
+        <v>-0.003333685891310011</v>
       </c>
       <c r="D67">
-        <v>-0.01454642540976163</v>
+        <v>0.001773451670371801</v>
       </c>
       <c r="E67">
-        <v>-0.0187538485762721</v>
+        <v>0.01024809744007648</v>
       </c>
       <c r="F67">
-        <v>0.01623547599549317</v>
+        <v>0.03654468134648352</v>
       </c>
       <c r="G67">
-        <v>-0.01762390401478846</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03403929101957215</v>
+      </c>
+      <c r="H67">
+        <v>0.004484194037461641</v>
+      </c>
+      <c r="I67">
+        <v>-0.03384101669816447</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.03682466838940846</v>
+        <v>-0.06078849332565253</v>
       </c>
       <c r="C68">
-        <v>0.2452849332522435</v>
+        <v>-0.2330371843847145</v>
       </c>
       <c r="D68">
-        <v>0.01713149649165279</v>
+        <v>0.01149526435981284</v>
       </c>
       <c r="E68">
-        <v>-0.05699188014646462</v>
+        <v>-0.03845471840976852</v>
       </c>
       <c r="F68">
-        <v>-0.03118526733458967</v>
+        <v>0.05746020835059038</v>
       </c>
       <c r="G68">
-        <v>0.005210259935361887</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.003468701681429735</v>
+      </c>
+      <c r="H68">
+        <v>0.02437723076395288</v>
+      </c>
+      <c r="I68">
+        <v>0.1315343429795652</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07176833964309766</v>
+        <v>-0.07122652612859419</v>
       </c>
       <c r="C69">
-        <v>-0.01765025809752273</v>
+        <v>0.02088478849365884</v>
       </c>
       <c r="D69">
-        <v>-0.0244171723042261</v>
+        <v>0.006551159232450081</v>
       </c>
       <c r="E69">
-        <v>0.01421225631903961</v>
+        <v>0.03277106291004488</v>
       </c>
       <c r="F69">
-        <v>-0.02123605518265563</v>
+        <v>-0.0005650665859392777</v>
       </c>
       <c r="G69">
-        <v>0.01640773230378118</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02145514233348466</v>
+      </c>
+      <c r="H69">
+        <v>-0.02961131362432014</v>
+      </c>
+      <c r="I69">
+        <v>0.004327824249046334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.02630068580346052</v>
+        <v>-0.05914816350742876</v>
       </c>
       <c r="C71">
-        <v>0.2819895600677556</v>
+        <v>-0.2495431937400341</v>
       </c>
       <c r="D71">
-        <v>0.03423407566348138</v>
+        <v>0.01539671244783764</v>
       </c>
       <c r="E71">
-        <v>-0.08872433027331235</v>
+        <v>-0.06556507806870411</v>
       </c>
       <c r="F71">
-        <v>-0.03637396210249704</v>
+        <v>0.07717414691066463</v>
       </c>
       <c r="G71">
-        <v>-0.003769921676781624</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01870012234951274</v>
+      </c>
+      <c r="H71">
+        <v>0.03269410074736166</v>
+      </c>
+      <c r="I71">
+        <v>0.1134092060864408</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1241725639774797</v>
+        <v>-0.1226255911289986</v>
       </c>
       <c r="C72">
-        <v>0.002349140097828742</v>
+        <v>0.03288236935501682</v>
       </c>
       <c r="D72">
-        <v>-0.04020652111149559</v>
+        <v>0.00709328878136159</v>
       </c>
       <c r="E72">
-        <v>-0.08685052342487168</v>
+        <v>0.06471638774248888</v>
       </c>
       <c r="F72">
-        <v>0.02564534733871531</v>
+        <v>0.08873539058649486</v>
       </c>
       <c r="G72">
-        <v>0.01806912251017428</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04188679150068132</v>
+      </c>
+      <c r="H72">
+        <v>0.01813670149201014</v>
+      </c>
+      <c r="I72">
+        <v>-0.1102009639852771</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2884254737719781</v>
+        <v>-0.2693622420562957</v>
       </c>
       <c r="C73">
-        <v>0.1656821850049008</v>
+        <v>-0.0697471035732431</v>
       </c>
       <c r="D73">
-        <v>0.05779807776052732</v>
+        <v>0.08676870705651087</v>
       </c>
       <c r="E73">
-        <v>-0.3371727275596464</v>
+        <v>-0.04360618497115233</v>
       </c>
       <c r="F73">
-        <v>0.01162328411979618</v>
+        <v>0.3054246995705482</v>
       </c>
       <c r="G73">
-        <v>-0.06295897093492052</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1426938166527278</v>
+      </c>
+      <c r="H73">
+        <v>0.4820902656647341</v>
+      </c>
+      <c r="I73">
+        <v>-0.2705614758272163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1591304218481956</v>
+        <v>-0.1488118727092395</v>
       </c>
       <c r="C74">
-        <v>-0.01305109585424761</v>
+        <v>0.03131318419387884</v>
       </c>
       <c r="D74">
-        <v>-0.04174852125948452</v>
+        <v>0.01284265418890218</v>
       </c>
       <c r="E74">
-        <v>0.03555475299751941</v>
+        <v>0.0528733336345431</v>
       </c>
       <c r="F74">
-        <v>0.003186114368314746</v>
+        <v>-0.05957697866971846</v>
       </c>
       <c r="G74">
-        <v>0.08220938895215033</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.02306274619981433</v>
+      </c>
+      <c r="H74">
+        <v>0.02839662629840918</v>
+      </c>
+      <c r="I74">
+        <v>0.0427585982044322</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2338185075696169</v>
+        <v>-0.2410109775656826</v>
       </c>
       <c r="C75">
-        <v>-0.009624307880597699</v>
+        <v>0.03008535837322723</v>
       </c>
       <c r="D75">
-        <v>-0.07628273350098624</v>
+        <v>0.02792678862972732</v>
       </c>
       <c r="E75">
-        <v>0.1286561616706271</v>
+        <v>0.1135940821573121</v>
       </c>
       <c r="F75">
-        <v>-0.02134993180303312</v>
+        <v>-0.1445237082022601</v>
       </c>
       <c r="G75">
-        <v>0.04962093311535814</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.003309478075751526</v>
+      </c>
+      <c r="H75">
+        <v>0.01766459867384408</v>
+      </c>
+      <c r="I75">
+        <v>0.08528401757896335</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.248659965114615</v>
+        <v>-0.263873765417792</v>
       </c>
       <c r="C76">
-        <v>0.01260040606089061</v>
+        <v>0.01448258186654375</v>
       </c>
       <c r="D76">
-        <v>-0.109676545556533</v>
+        <v>-0.01177172759910267</v>
       </c>
       <c r="E76">
-        <v>0.1268487772057748</v>
+        <v>0.1384641220972177</v>
       </c>
       <c r="F76">
-        <v>0.02435595036194062</v>
+        <v>-0.1821052277685346</v>
       </c>
       <c r="G76">
-        <v>0.08684431636541941</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05985849238450716</v>
+      </c>
+      <c r="H76">
+        <v>0.04433894445926691</v>
+      </c>
+      <c r="I76">
+        <v>0.05987051329785583</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1325751760178494</v>
+        <v>-0.1229694597528756</v>
       </c>
       <c r="C77">
-        <v>-0.06752145172971519</v>
+        <v>0.07551217483162782</v>
       </c>
       <c r="D77">
-        <v>0.03328864900541836</v>
+        <v>0.00926233366687239</v>
       </c>
       <c r="E77">
-        <v>-0.1451555409385702</v>
+        <v>-0.02867964631434931</v>
       </c>
       <c r="F77">
-        <v>0.01722839195764791</v>
+        <v>0.1580317146326785</v>
       </c>
       <c r="G77">
-        <v>-0.05303293064701176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.01426071018752361</v>
+      </c>
+      <c r="H77">
+        <v>-0.2078926281186909</v>
+      </c>
+      <c r="I77">
+        <v>0.278252477994935</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08599374885408775</v>
+        <v>-0.07382619567491393</v>
       </c>
       <c r="C78">
-        <v>-0.05508268020478404</v>
+        <v>0.07657574013833106</v>
       </c>
       <c r="D78">
-        <v>0.01044092245349439</v>
+        <v>-0.003164561402633092</v>
       </c>
       <c r="E78">
-        <v>-0.05326792225957991</v>
+        <v>0.01586986976703855</v>
       </c>
       <c r="F78">
-        <v>-0.0116898134968489</v>
+        <v>0.07675693947964975</v>
       </c>
       <c r="G78">
-        <v>-0.000395084595364188</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.008950480750128699</v>
+      </c>
+      <c r="H78">
+        <v>-0.02111157489302128</v>
+      </c>
+      <c r="I78">
+        <v>0.03552692537352404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.05707333031678453</v>
+        <v>-0.138351003421295</v>
       </c>
       <c r="C80">
-        <v>-0.02008846524311218</v>
+        <v>-0.009829115267271024</v>
       </c>
       <c r="D80">
-        <v>0.1064821580181977</v>
+        <v>-0.9746530304309301</v>
       </c>
       <c r="E80">
-        <v>0.07175727970730345</v>
+        <v>-0.06025078796373885</v>
       </c>
       <c r="F80">
-        <v>0.8417868147241997</v>
+        <v>0.04571917626370327</v>
       </c>
       <c r="G80">
-        <v>-0.4617960375702359</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04920736748836661</v>
+      </c>
+      <c r="H80">
+        <v>0.04657055676938979</v>
+      </c>
+      <c r="I80">
+        <v>-0.06103034403122352</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1657279598952504</v>
+        <v>-0.1777308584290755</v>
       </c>
       <c r="C81">
-        <v>0.009521361446748325</v>
+        <v>0.007247304271310841</v>
       </c>
       <c r="D81">
-        <v>-0.05398978930852727</v>
+        <v>0.006135152315241056</v>
       </c>
       <c r="E81">
-        <v>0.1665258531501903</v>
+        <v>0.08577263917929198</v>
       </c>
       <c r="F81">
-        <v>0.01373779700785066</v>
+        <v>-0.1573464492721074</v>
       </c>
       <c r="G81">
-        <v>0.09016388749414289</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02982600153562018</v>
+      </c>
+      <c r="H81">
+        <v>0.004636029118909098</v>
+      </c>
+      <c r="I81">
+        <v>0.04989356761103006</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09181658769175378</v>
+        <v>-0.06928333339167338</v>
       </c>
       <c r="C83">
-        <v>-0.07092332569053408</v>
+        <v>0.05539046206386378</v>
       </c>
       <c r="D83">
-        <v>0.05753180735523657</v>
+        <v>0.01599300925889026</v>
       </c>
       <c r="E83">
-        <v>-0.01561448182199677</v>
+        <v>-0.03366850520065445</v>
       </c>
       <c r="F83">
-        <v>-0.05918139803117964</v>
+        <v>0.04603809799044908</v>
       </c>
       <c r="G83">
-        <v>-0.03322104423287365</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05825734471089757</v>
+      </c>
+      <c r="H83">
+        <v>-0.03757719881215775</v>
+      </c>
+      <c r="I83">
+        <v>0.04020505472192418</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2381522525097046</v>
+        <v>-0.2511862970398558</v>
       </c>
       <c r="C85">
-        <v>-0.05966954516635218</v>
+        <v>0.05711952171195411</v>
       </c>
       <c r="D85">
-        <v>-0.06737113284033348</v>
+        <v>0.008548684561552469</v>
       </c>
       <c r="E85">
-        <v>0.1606584975415035</v>
+        <v>0.1091531466569519</v>
       </c>
       <c r="F85">
-        <v>0.0370149832734841</v>
+        <v>-0.1876088184543837</v>
       </c>
       <c r="G85">
-        <v>0.07746970957852908</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.02662628537825064</v>
+      </c>
+      <c r="H85">
+        <v>-0.02329497718842333</v>
+      </c>
+      <c r="I85">
+        <v>0.06946950512079859</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04092209423547926</v>
+        <v>-0.02400937215529329</v>
       </c>
       <c r="C86">
-        <v>-0.04924063123400992</v>
+        <v>0.05241090273335976</v>
       </c>
       <c r="D86">
-        <v>-0.006395013429981296</v>
+        <v>0.002655824279901207</v>
       </c>
       <c r="E86">
-        <v>-0.06753893808636505</v>
+        <v>0.0187774679636704</v>
       </c>
       <c r="F86">
-        <v>0.004673268349521751</v>
+        <v>0.07957863559903604</v>
       </c>
       <c r="G86">
-        <v>0.004097727785558824</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.004426521462100165</v>
+      </c>
+      <c r="H86">
+        <v>-0.0624471989600506</v>
+      </c>
+      <c r="I86">
+        <v>0.02195180277649673</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02716102519746429</v>
+        <v>-0.03151254847533104</v>
       </c>
       <c r="C87">
-        <v>0.05447726481685948</v>
+        <v>-0.01042496575547427</v>
       </c>
       <c r="D87">
-        <v>0.002995306689788978</v>
+        <v>0.001283829707908476</v>
       </c>
       <c r="E87">
-        <v>-0.09479816529588214</v>
+        <v>0.001739732517858572</v>
       </c>
       <c r="F87">
-        <v>0.007341532846989461</v>
+        <v>0.09960956523090786</v>
       </c>
       <c r="G87">
-        <v>0.01472964572081955</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.0212867921621447</v>
+      </c>
+      <c r="H87">
+        <v>-0.01230957163276003</v>
+      </c>
+      <c r="I87">
+        <v>-0.001723667025284666</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03145414832989484</v>
+        <v>-0.03200888021244946</v>
       </c>
       <c r="C88">
-        <v>-0.02416544627647982</v>
+        <v>0.01134037407843707</v>
       </c>
       <c r="D88">
-        <v>0.0001499672798245132</v>
+        <v>-0.007945510333243477</v>
       </c>
       <c r="E88">
-        <v>0.01165707627079406</v>
+        <v>0.008479126758735901</v>
       </c>
       <c r="F88">
-        <v>-0.002707021650903506</v>
+        <v>-0.01000093023654909</v>
       </c>
       <c r="G88">
-        <v>-0.01239358067265709</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.04806203087175531</v>
+      </c>
+      <c r="H88">
+        <v>-0.02894148204997882</v>
+      </c>
+      <c r="I88">
+        <v>-0.01533576376643177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.03284434579643527</v>
+        <v>-0.09564771793506797</v>
       </c>
       <c r="C89">
-        <v>0.3802173522670054</v>
+        <v>-0.3823203062807407</v>
       </c>
       <c r="D89">
-        <v>0.09422196886481531</v>
+        <v>0.03646646516514095</v>
       </c>
       <c r="E89">
-        <v>-0.00553110748465965</v>
+        <v>-0.08791586956451067</v>
       </c>
       <c r="F89">
-        <v>-0.0391765404426135</v>
+        <v>0.03420325096596796</v>
       </c>
       <c r="G89">
-        <v>-0.005958195546976388</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.0374641881813592</v>
+      </c>
+      <c r="H89">
+        <v>-0.04589039514697298</v>
+      </c>
+      <c r="I89">
+        <v>0.2242757403314279</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.02634254723255596</v>
+        <v>-0.06524839307719991</v>
       </c>
       <c r="C90">
-        <v>0.2994100791248792</v>
+        <v>-0.3220412169595623</v>
       </c>
       <c r="D90">
-        <v>0.05515217330165608</v>
+        <v>0.0118732615508785</v>
       </c>
       <c r="E90">
-        <v>-0.05587982335503899</v>
+        <v>-0.07138964421409891</v>
       </c>
       <c r="F90">
-        <v>-0.0465335015807026</v>
+        <v>0.03426576065708012</v>
       </c>
       <c r="G90">
-        <v>-0.0183322233863485</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02461411303199387</v>
+      </c>
+      <c r="H90">
+        <v>0.001039335911185461</v>
+      </c>
+      <c r="I90">
+        <v>0.1921872907523156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2800845571411927</v>
+        <v>-0.2896878677272031</v>
       </c>
       <c r="C91">
-        <v>-0.04107573635143359</v>
+        <v>0.04911355482067387</v>
       </c>
       <c r="D91">
-        <v>-0.08367616658548273</v>
+        <v>0.01651263498199098</v>
       </c>
       <c r="E91">
-        <v>0.2733365426221655</v>
+        <v>0.1036698526489235</v>
       </c>
       <c r="F91">
-        <v>0.03929712440575914</v>
+        <v>-0.2754472473044147</v>
       </c>
       <c r="G91">
-        <v>0.05371806177429431</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.0283175725568777</v>
+      </c>
+      <c r="H91">
+        <v>0.006078598348342856</v>
+      </c>
+      <c r="I91">
+        <v>0.1017401759338961</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.0668023110530532</v>
+        <v>-0.1274201491299414</v>
       </c>
       <c r="C92">
-        <v>0.4087673140299843</v>
+        <v>-0.4168223732354879</v>
       </c>
       <c r="D92">
-        <v>0.1714572000945132</v>
+        <v>-0.007629920801595868</v>
       </c>
       <c r="E92">
-        <v>0.09634200221176893</v>
+        <v>-0.1168820121291802</v>
       </c>
       <c r="F92">
-        <v>0.08597211593937826</v>
+        <v>-0.1116711410135564</v>
       </c>
       <c r="G92">
-        <v>-0.005417880245293338</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.06083173405731755</v>
+      </c>
+      <c r="H92">
+        <v>-0.4559476065281308</v>
+      </c>
+      <c r="I92">
+        <v>-0.5208230668223937</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.01714209113037936</v>
+        <v>-0.07658738400327418</v>
       </c>
       <c r="C93">
-        <v>0.3681868455774703</v>
+        <v>-0.3895044592922354</v>
       </c>
       <c r="D93">
-        <v>0.0836246888464659</v>
+        <v>0.02885448693619221</v>
       </c>
       <c r="E93">
-        <v>0.01978440146577078</v>
+        <v>-0.1132215813200232</v>
       </c>
       <c r="F93">
-        <v>0.007269671721819432</v>
+        <v>0.004756943409421255</v>
       </c>
       <c r="G93">
-        <v>-0.02833848180708999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03846761375929909</v>
+      </c>
+      <c r="H93">
+        <v>0.02396842227623082</v>
+      </c>
+      <c r="I93">
+        <v>0.1248893361250006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2808392671500013</v>
+        <v>-0.3117116938559116</v>
       </c>
       <c r="C94">
-        <v>0.09581241862761156</v>
+        <v>-0.04119265771592701</v>
       </c>
       <c r="D94">
-        <v>-0.05151930210259756</v>
+        <v>0.04084828130793496</v>
       </c>
       <c r="E94">
-        <v>0.3603440307047464</v>
+        <v>0.1318677276323973</v>
       </c>
       <c r="F94">
-        <v>0.1499706876546232</v>
+        <v>-0.3302101323740855</v>
       </c>
       <c r="G94">
-        <v>0.3544604335614649</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.210248343690302</v>
+      </c>
+      <c r="H94">
+        <v>-0.107167667014866</v>
+      </c>
+      <c r="I94">
+        <v>-0.0241772926807391</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1844922941179501</v>
+        <v>-0.1381228495804185</v>
       </c>
       <c r="C95">
-        <v>-0.0045199204377703</v>
+        <v>0.04452668152069941</v>
       </c>
       <c r="D95">
-        <v>-0.0194291188833777</v>
+        <v>0.0977228062921249</v>
       </c>
       <c r="E95">
-        <v>0.3532593601047908</v>
+        <v>0.04032687111898881</v>
       </c>
       <c r="F95">
-        <v>-0.440689577050613</v>
+        <v>-0.08676275477244932</v>
       </c>
       <c r="G95">
-        <v>-0.7412452660763187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9029761012226222</v>
+      </c>
+      <c r="H95">
+        <v>0.1089741230645808</v>
+      </c>
+      <c r="I95">
+        <v>-0.180590875464408</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2199055672799983</v>
+        <v>-0.2089188812622574</v>
       </c>
       <c r="C98">
-        <v>0.1010747470000173</v>
+        <v>-0.05499420031060864</v>
       </c>
       <c r="D98">
-        <v>0.03167717511112007</v>
+        <v>0.06107720097271319</v>
       </c>
       <c r="E98">
-        <v>-0.09661219585718396</v>
+        <v>-0.03397191573645991</v>
       </c>
       <c r="F98">
-        <v>-0.04984204639595884</v>
+        <v>0.1607900232342667</v>
       </c>
       <c r="G98">
-        <v>-0.02037908429174548</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.06105690120555581</v>
+      </c>
+      <c r="H98">
+        <v>0.321491202147786</v>
+      </c>
+      <c r="I98">
+        <v>-0.1617043078503679</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.02413993493653689</v>
+        <v>-0.01734485352960623</v>
       </c>
       <c r="C101">
-        <v>-0.02611001364846318</v>
+        <v>0.02752543451385304</v>
       </c>
       <c r="D101">
-        <v>-0.03232304750181535</v>
+        <v>-0.003768467560921745</v>
       </c>
       <c r="E101">
-        <v>-0.03507965838313411</v>
+        <v>0.0357207606282569</v>
       </c>
       <c r="F101">
-        <v>-0.01673270398512157</v>
+        <v>0.06770874049614564</v>
       </c>
       <c r="G101">
-        <v>-0.00181814834363275</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.008522441532783635</v>
+      </c>
+      <c r="H101">
+        <v>-0.1099774689286875</v>
+      </c>
+      <c r="I101">
+        <v>-0.08440243649824949</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1125518319848848</v>
+        <v>-0.1214433716893363</v>
       </c>
       <c r="C102">
-        <v>-0.02462717105144194</v>
+        <v>0.02464391188844912</v>
       </c>
       <c r="D102">
-        <v>-0.04060487252226085</v>
+        <v>-0.003036244301269989</v>
       </c>
       <c r="E102">
-        <v>0.09606377808336643</v>
+        <v>0.05641517595424955</v>
       </c>
       <c r="F102">
-        <v>0.02080321439673504</v>
+        <v>-0.1045629149946017</v>
       </c>
       <c r="G102">
-        <v>0.0008411570057259855</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.009948505741255737</v>
+      </c>
+      <c r="H102">
+        <v>0.01002155383560981</v>
+      </c>
+      <c r="I102">
+        <v>0.06576490538250282</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02072811733083819</v>
+        <v>-0.02987366028339419</v>
       </c>
       <c r="C103">
-        <v>-0.004712738553575157</v>
+        <v>0.007094692834759188</v>
       </c>
       <c r="D103">
-        <v>-0.01003171731836051</v>
+        <v>-0.008443920014087105</v>
       </c>
       <c r="E103">
-        <v>0.03235588074014888</v>
+        <v>0.02079677723569266</v>
       </c>
       <c r="F103">
-        <v>-0.002412652077349405</v>
+        <v>-0.02578097504795773</v>
       </c>
       <c r="G103">
-        <v>0.009910639584789471</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.009878551279469058</v>
+      </c>
+      <c r="H103">
+        <v>-0.01242789090303024</v>
+      </c>
+      <c r="I103">
+        <v>0.0227527963713865</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
